--- a/Data/Input/Without_observations/xlsx/VB.xlsx
+++ b/Data/Input/Without_observations/xlsx/VB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="276" yWindow="636" windowWidth="20772" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -419,18 +419,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -461,16 +461,16 @@
         <v>5593022.0175287649</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -504,13 +504,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -583,17 +583,17 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -616,7 +616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>

--- a/Data/Input/Without_observations/xlsx/VB.xlsx
+++ b/Data/Input/Without_observations/xlsx/VB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,11 +540,11 @@
       <c r="C6">
         <v>5593174.7072414076</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -560,11 +560,11 @@
       <c r="C7">
         <v>5593508.3243576586</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>

--- a/Data/Input/Without_observations/xlsx/VB.xlsx
+++ b/Data/Input/Without_observations/xlsx/VB.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +541,10 @@
         <v>5593174.7072414076</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -561,7 +561,7 @@
         <v>5593508.3243576586</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
